--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ifnk-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ifnk-Ifnar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ifnk</t>
+  </si>
+  <si>
+    <t>Ifnar2</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ifnk</t>
-  </si>
-  <si>
-    <t>Ifnar2</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2655433333333333</v>
+        <v>0.1015246666666667</v>
       </c>
       <c r="H2">
-        <v>0.7966299999999999</v>
+        <v>0.304574</v>
       </c>
       <c r="I2">
-        <v>0.2002402994191088</v>
+        <v>0.07136555804734102</v>
       </c>
       <c r="J2">
-        <v>0.2002402994191088</v>
+        <v>0.071365558047341</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.309487</v>
+        <v>31.743396</v>
       </c>
       <c r="N2">
-        <v>48.928461</v>
+        <v>95.230188</v>
       </c>
       <c r="O2">
-        <v>0.05902573060056989</v>
+        <v>0.1189237443612096</v>
       </c>
       <c r="P2">
-        <v>0.05902573060056989</v>
+        <v>0.1189237443612096</v>
       </c>
       <c r="Q2">
-        <v>4.330875542936666</v>
+        <v>3.222737697768</v>
       </c>
       <c r="R2">
-        <v>38.97787988643</v>
+        <v>29.004639279912</v>
       </c>
       <c r="S2">
-        <v>0.01181932996888977</v>
+        <v>0.008487059381417045</v>
       </c>
       <c r="T2">
-        <v>0.01181932996888977</v>
+        <v>0.008487059381417044</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2655433333333333</v>
+        <v>0.1015246666666667</v>
       </c>
       <c r="H3">
-        <v>0.7966299999999999</v>
+        <v>0.304574</v>
       </c>
       <c r="I3">
-        <v>0.2002402994191088</v>
+        <v>0.07136555804734102</v>
       </c>
       <c r="J3">
-        <v>0.2002402994191088</v>
+        <v>0.071365558047341</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>85.10236499999999</v>
       </c>
       <c r="O3">
-        <v>0.1026647715316729</v>
+        <v>0.1062760886263749</v>
       </c>
       <c r="P3">
-        <v>0.1026647715316729</v>
+        <v>0.106276088626375</v>
       </c>
       <c r="Q3">
-        <v>7.532788558883332</v>
+        <v>2.879996413056666</v>
       </c>
       <c r="R3">
-        <v>67.79509702994999</v>
+        <v>25.91996771751</v>
       </c>
       <c r="S3">
-        <v>0.02055762459129658</v>
+        <v>0.007584452371909918</v>
       </c>
       <c r="T3">
-        <v>0.02055762459129658</v>
+        <v>0.007584452371909919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2655433333333333</v>
+        <v>0.1015246666666667</v>
       </c>
       <c r="H4">
-        <v>0.7966299999999999</v>
+        <v>0.304574</v>
       </c>
       <c r="I4">
-        <v>0.2002402994191088</v>
+        <v>0.07136555804734102</v>
       </c>
       <c r="J4">
-        <v>0.2002402994191088</v>
+        <v>0.071365558047341</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>70.295663</v>
+        <v>70.51016133333333</v>
       </c>
       <c r="N4">
-        <v>210.886989</v>
+        <v>211.530484</v>
       </c>
       <c r="O4">
-        <v>0.2544073192876299</v>
+        <v>0.264159902780187</v>
       </c>
       <c r="P4">
-        <v>0.2544073192876299</v>
+        <v>0.264159902780187</v>
       </c>
       <c r="Q4">
-        <v>18.66654467189667</v>
+        <v>7.158520625979555</v>
       </c>
       <c r="R4">
-        <v>167.99890204707</v>
+        <v>64.42668563381601</v>
       </c>
       <c r="S4">
-        <v>0.05094259778856783</v>
+        <v>0.01885191887563939</v>
       </c>
       <c r="T4">
-        <v>0.05094259778856783</v>
+        <v>0.01885191887563939</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2655433333333333</v>
+        <v>0.1015246666666667</v>
       </c>
       <c r="H5">
-        <v>0.7966299999999999</v>
+        <v>0.304574</v>
       </c>
       <c r="I5">
-        <v>0.2002402994191088</v>
+        <v>0.07136555804734102</v>
       </c>
       <c r="J5">
-        <v>0.2002402994191088</v>
+        <v>0.071365558047341</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.105304</v>
+        <v>6.595865666666666</v>
       </c>
       <c r="N5">
-        <v>33.315912</v>
+        <v>19.787597</v>
       </c>
       <c r="O5">
-        <v>0.04019125078191798</v>
+        <v>0.02471081047483217</v>
       </c>
       <c r="P5">
-        <v>0.04019125078191799</v>
+        <v>0.02471081047483218</v>
       </c>
       <c r="Q5">
-        <v>2.948939441839999</v>
+        <v>0.6696430631864444</v>
       </c>
       <c r="R5">
-        <v>26.54045497656</v>
+        <v>6.026787568677999</v>
       </c>
       <c r="S5">
-        <v>0.008047908090599748</v>
+        <v>0.001763500779338478</v>
       </c>
       <c r="T5">
-        <v>0.008047908090599749</v>
+        <v>0.001763500779338478</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2655433333333333</v>
+        <v>0.1015246666666667</v>
       </c>
       <c r="H6">
-        <v>0.7966299999999999</v>
+        <v>0.304574</v>
       </c>
       <c r="I6">
-        <v>0.2002402994191088</v>
+        <v>0.07136555804734102</v>
       </c>
       <c r="J6">
-        <v>0.2002402994191088</v>
+        <v>0.071365558047341</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.16787466666667</v>
+        <v>64.15060166666667</v>
       </c>
       <c r="N6">
-        <v>162.503624</v>
+        <v>192.451805</v>
       </c>
       <c r="O6">
-        <v>0.1960391750690933</v>
+        <v>0.2403343912297365</v>
       </c>
       <c r="P6">
-        <v>0.1960391750690933</v>
+        <v>0.2403343912297365</v>
       </c>
       <c r="Q6">
-        <v>14.38391799856889</v>
+        <v>6.512868450674445</v>
       </c>
       <c r="R6">
-        <v>129.45526198712</v>
+        <v>58.61581605607</v>
       </c>
       <c r="S6">
-        <v>0.03925494311371033</v>
+        <v>0.01715159794807812</v>
       </c>
       <c r="T6">
-        <v>0.03925494311371034</v>
+        <v>0.01715159794807812</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2655433333333333</v>
+        <v>0.1015246666666667</v>
       </c>
       <c r="H7">
-        <v>0.7966299999999999</v>
+        <v>0.304574</v>
       </c>
       <c r="I7">
-        <v>0.2002402994191088</v>
+        <v>0.07136555804734102</v>
       </c>
       <c r="J7">
-        <v>0.2002402994191088</v>
+        <v>0.071365558047341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>96.06569666666667</v>
+        <v>65.55479199999999</v>
       </c>
       <c r="N7">
-        <v>288.19709</v>
+        <v>196.664376</v>
       </c>
       <c r="O7">
-        <v>0.347671752729116</v>
+        <v>0.2455950625276598</v>
       </c>
       <c r="P7">
-        <v>0.347671752729116</v>
+        <v>0.2455950625276598</v>
       </c>
       <c r="Q7">
-        <v>25.50960531185555</v>
+        <v>6.655428406202666</v>
       </c>
       <c r="R7">
-        <v>229.5864478067</v>
+        <v>59.89885565582399</v>
       </c>
       <c r="S7">
-        <v>0.06961789586604455</v>
+        <v>0.01752702869095805</v>
       </c>
       <c r="T7">
-        <v>0.06961789586604455</v>
+        <v>0.01752702869095805</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1015246666666667</v>
+        <v>0.3509659999999999</v>
       </c>
       <c r="H8">
-        <v>0.304574</v>
+        <v>1.052898</v>
       </c>
       <c r="I8">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="J8">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.309487</v>
+        <v>31.743396</v>
       </c>
       <c r="N8">
-        <v>48.928461</v>
+        <v>95.230188</v>
       </c>
       <c r="O8">
-        <v>0.05902573060056989</v>
+        <v>0.1189237443612096</v>
       </c>
       <c r="P8">
-        <v>0.05902573060056989</v>
+        <v>0.1189237443612096</v>
       </c>
       <c r="Q8">
-        <v>1.655815231179333</v>
+        <v>11.140852720536</v>
       </c>
       <c r="R8">
-        <v>14.902337080614</v>
+        <v>100.267674484824</v>
       </c>
       <c r="S8">
-        <v>0.004518861461336671</v>
+        <v>0.02933936530555872</v>
       </c>
       <c r="T8">
-        <v>0.004518861461336671</v>
+        <v>0.02933936530555872</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1015246666666667</v>
+        <v>0.3509659999999999</v>
       </c>
       <c r="H9">
-        <v>0.304574</v>
+        <v>1.052898</v>
       </c>
       <c r="I9">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="J9">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>85.10236499999999</v>
       </c>
       <c r="O9">
-        <v>0.1026647715316729</v>
+        <v>0.1062760886263749</v>
       </c>
       <c r="P9">
-        <v>0.1026647715316729</v>
+        <v>0.106276088626375</v>
       </c>
       <c r="Q9">
-        <v>2.879996413056666</v>
+        <v>9.956012211529996</v>
       </c>
       <c r="R9">
-        <v>25.91996771750999</v>
+        <v>89.60410990376998</v>
       </c>
       <c r="S9">
-        <v>0.007859756665289487</v>
+        <v>0.02621909530517775</v>
       </c>
       <c r="T9">
-        <v>0.007859756665289487</v>
+        <v>0.02621909530517775</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1015246666666667</v>
+        <v>0.3509659999999999</v>
       </c>
       <c r="H10">
-        <v>0.304574</v>
+        <v>1.052898</v>
       </c>
       <c r="I10">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="J10">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>70.295663</v>
+        <v>70.51016133333333</v>
       </c>
       <c r="N10">
-        <v>210.886989</v>
+        <v>211.530484</v>
       </c>
       <c r="O10">
-        <v>0.2544073192876299</v>
+        <v>0.264159902780187</v>
       </c>
       <c r="P10">
-        <v>0.2544073192876299</v>
+        <v>0.264159902780187</v>
       </c>
       <c r="Q10">
-        <v>7.136743754187333</v>
+        <v>24.74666928251466</v>
       </c>
       <c r="R10">
-        <v>64.23069378768599</v>
+        <v>222.720023542632</v>
       </c>
       <c r="S10">
-        <v>0.0194767844279719</v>
+        <v>0.06517019732584843</v>
       </c>
       <c r="T10">
-        <v>0.0194767844279719</v>
+        <v>0.06517019732584844</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1015246666666667</v>
+        <v>0.3509659999999999</v>
       </c>
       <c r="H11">
-        <v>0.304574</v>
+        <v>1.052898</v>
       </c>
       <c r="I11">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="J11">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.105304</v>
+        <v>6.595865666666666</v>
       </c>
       <c r="N11">
-        <v>33.315912</v>
+        <v>19.787597</v>
       </c>
       <c r="O11">
-        <v>0.04019125078191798</v>
+        <v>0.02471081047483217</v>
       </c>
       <c r="P11">
-        <v>0.04019125078191799</v>
+        <v>0.02471081047483218</v>
       </c>
       <c r="Q11">
-        <v>1.127462286832</v>
+        <v>2.314924589567333</v>
       </c>
       <c r="R11">
-        <v>10.147160581488</v>
+        <v>20.83432130610599</v>
       </c>
       <c r="S11">
-        <v>0.003076941062709573</v>
+        <v>0.006096339292138936</v>
       </c>
       <c r="T11">
-        <v>0.003076941062709574</v>
+        <v>0.006096339292138936</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1015246666666667</v>
+        <v>0.3509659999999999</v>
       </c>
       <c r="H12">
-        <v>0.304574</v>
+        <v>1.052898</v>
       </c>
       <c r="I12">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="J12">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>54.16787466666667</v>
+        <v>64.15060166666667</v>
       </c>
       <c r="N12">
-        <v>162.503624</v>
+        <v>192.451805</v>
       </c>
       <c r="O12">
-        <v>0.1960391750690933</v>
+        <v>0.2403343912297365</v>
       </c>
       <c r="P12">
-        <v>0.1960391750690933</v>
+        <v>0.2403343912297365</v>
       </c>
       <c r="Q12">
-        <v>5.49937541957511</v>
+        <v>22.51468006454333</v>
       </c>
       <c r="R12">
-        <v>49.49437877617599</v>
+        <v>202.63212058089</v>
       </c>
       <c r="S12">
-        <v>0.01500826612594958</v>
+        <v>0.0592922678112234</v>
       </c>
       <c r="T12">
-        <v>0.01500826612594958</v>
+        <v>0.0592922678112234</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1015246666666667</v>
+        <v>0.3509659999999999</v>
       </c>
       <c r="H13">
-        <v>0.304574</v>
+        <v>1.052898</v>
       </c>
       <c r="I13">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="J13">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>96.06569666666667</v>
+        <v>65.55479199999999</v>
       </c>
       <c r="N13">
-        <v>288.19709</v>
+        <v>196.664376</v>
       </c>
       <c r="O13">
-        <v>0.347671752729116</v>
+        <v>0.2455950625276598</v>
       </c>
       <c r="P13">
-        <v>0.347671752729116</v>
+        <v>0.2455950625276598</v>
       </c>
       <c r="Q13">
-        <v>9.753037832184443</v>
+        <v>23.00750312907199</v>
       </c>
       <c r="R13">
-        <v>87.77734048965999</v>
+        <v>207.0675281616479</v>
       </c>
       <c r="S13">
-        <v>0.02661687485470627</v>
+        <v>0.06059011424038934</v>
       </c>
       <c r="T13">
-        <v>0.02661687485470627</v>
+        <v>0.06059011424038935</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.152942</v>
+        <v>0.2238046666666667</v>
       </c>
       <c r="H14">
-        <v>0.458826</v>
+        <v>0.671414</v>
       </c>
       <c r="I14">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="J14">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.309487</v>
+        <v>31.743396</v>
       </c>
       <c r="N14">
-        <v>48.928461</v>
+        <v>95.230188</v>
       </c>
       <c r="O14">
-        <v>0.05902573060056989</v>
+        <v>0.1189237443612096</v>
       </c>
       <c r="P14">
-        <v>0.05902573060056989</v>
+        <v>0.1189237443612096</v>
       </c>
       <c r="Q14">
-        <v>2.494405560754</v>
+        <v>7.104320160647999</v>
       </c>
       <c r="R14">
-        <v>22.449650046786</v>
+        <v>63.938881445832</v>
       </c>
       <c r="S14">
-        <v>0.006807446232637257</v>
+        <v>0.01870918229236489</v>
       </c>
       <c r="T14">
-        <v>0.006807446232637257</v>
+        <v>0.01870918229236489</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.152942</v>
+        <v>0.2238046666666667</v>
       </c>
       <c r="H15">
-        <v>0.458826</v>
+        <v>0.671414</v>
       </c>
       <c r="I15">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="J15">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>85.10236499999999</v>
       </c>
       <c r="O15">
-        <v>0.1026647715316729</v>
+        <v>0.1062760886263749</v>
       </c>
       <c r="P15">
-        <v>0.1026647715316729</v>
+        <v>0.106276088626375</v>
       </c>
       <c r="Q15">
-        <v>4.338575302609999</v>
+        <v>6.348768810456665</v>
       </c>
       <c r="R15">
-        <v>39.04717772348999</v>
+        <v>57.13891929410999</v>
       </c>
       <c r="S15">
-        <v>0.01184034327194086</v>
+        <v>0.01671944258155169</v>
       </c>
       <c r="T15">
-        <v>0.01184034327194086</v>
+        <v>0.01671944258155169</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.152942</v>
+        <v>0.2238046666666667</v>
       </c>
       <c r="H16">
-        <v>0.458826</v>
+        <v>0.671414</v>
       </c>
       <c r="I16">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="J16">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>70.295663</v>
+        <v>70.51016133333333</v>
       </c>
       <c r="N16">
-        <v>210.886989</v>
+        <v>211.530484</v>
       </c>
       <c r="O16">
-        <v>0.2544073192876299</v>
+        <v>0.264159902780187</v>
       </c>
       <c r="P16">
-        <v>0.2544073192876299</v>
+        <v>0.264159902780187</v>
       </c>
       <c r="Q16">
-        <v>10.751159290546</v>
+        <v>15.78050315381955</v>
       </c>
       <c r="R16">
-        <v>96.76043361491401</v>
+        <v>142.024528384376</v>
       </c>
       <c r="S16">
-        <v>0.02934083372825204</v>
+        <v>0.04155785543076082</v>
       </c>
       <c r="T16">
-        <v>0.02934083372825204</v>
+        <v>0.04155785543076082</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.152942</v>
+        <v>0.2238046666666667</v>
       </c>
       <c r="H17">
-        <v>0.458826</v>
+        <v>0.671414</v>
       </c>
       <c r="I17">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="J17">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.105304</v>
+        <v>6.595865666666666</v>
       </c>
       <c r="N17">
-        <v>33.315912</v>
+        <v>19.787597</v>
       </c>
       <c r="O17">
-        <v>0.04019125078191798</v>
+        <v>0.02471081047483217</v>
       </c>
       <c r="P17">
-        <v>0.04019125078191799</v>
+        <v>0.02471081047483218</v>
       </c>
       <c r="Q17">
-        <v>1.698467404368</v>
+        <v>1.476185516906444</v>
       </c>
       <c r="R17">
-        <v>15.286206639312</v>
+        <v>13.285669652158</v>
       </c>
       <c r="S17">
-        <v>0.004635262891904046</v>
+        <v>0.003887525239379476</v>
       </c>
       <c r="T17">
-        <v>0.004635262891904047</v>
+        <v>0.003887525239379476</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.152942</v>
+        <v>0.2238046666666667</v>
       </c>
       <c r="H18">
-        <v>0.458826</v>
+        <v>0.671414</v>
       </c>
       <c r="I18">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="J18">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>54.16787466666667</v>
+        <v>64.15060166666667</v>
       </c>
       <c r="N18">
-        <v>162.503624</v>
+        <v>192.451805</v>
       </c>
       <c r="O18">
-        <v>0.1960391750690933</v>
+        <v>0.2403343912297365</v>
       </c>
       <c r="P18">
-        <v>0.1960391750690933</v>
+        <v>0.2403343912297365</v>
       </c>
       <c r="Q18">
-        <v>8.284543087269334</v>
+        <v>14.35720402247444</v>
       </c>
       <c r="R18">
-        <v>74.560887785424</v>
+        <v>129.21483620227</v>
       </c>
       <c r="S18">
-        <v>0.02260922703022891</v>
+        <v>0.03780960615387697</v>
       </c>
       <c r="T18">
-        <v>0.02260922703022892</v>
+        <v>0.03780960615387696</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.152942</v>
+        <v>0.2238046666666667</v>
       </c>
       <c r="H19">
-        <v>0.458826</v>
+        <v>0.671414</v>
       </c>
       <c r="I19">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="J19">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>96.06569666666667</v>
+        <v>65.55479199999999</v>
       </c>
       <c r="N19">
-        <v>288.19709</v>
+        <v>196.664376</v>
       </c>
       <c r="O19">
-        <v>0.347671752729116</v>
+        <v>0.2455950625276598</v>
       </c>
       <c r="P19">
-        <v>0.347671752729116</v>
+        <v>0.2455950625276598</v>
       </c>
       <c r="Q19">
-        <v>14.69247977959333</v>
+        <v>14.67146837196266</v>
       </c>
       <c r="R19">
-        <v>132.23231801634</v>
+        <v>132.043215347664</v>
       </c>
       <c r="S19">
-        <v>0.04009703461912526</v>
+        <v>0.03863721933425344</v>
       </c>
       <c r="T19">
-        <v>0.04009703461912526</v>
+        <v>0.03863721933425344</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.4689626666666666</v>
+        <v>0.746305</v>
       </c>
       <c r="H20">
-        <v>1.406888</v>
+        <v>2.238915</v>
       </c>
       <c r="I20">
-        <v>0.353634277354796</v>
+        <v>0.5246062316401351</v>
       </c>
       <c r="J20">
-        <v>0.353634277354796</v>
+        <v>0.524606231640135</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.309487</v>
+        <v>31.743396</v>
       </c>
       <c r="N20">
-        <v>48.928461</v>
+        <v>95.230188</v>
       </c>
       <c r="O20">
-        <v>0.05902573060056989</v>
+        <v>0.1189237443612096</v>
       </c>
       <c r="P20">
-        <v>0.05902573060056989</v>
+        <v>0.1189237443612096</v>
       </c>
       <c r="Q20">
-        <v>7.648540515485333</v>
+        <v>23.69025515178</v>
       </c>
       <c r="R20">
-        <v>68.83686463936799</v>
+        <v>213.21229636602</v>
       </c>
       <c r="S20">
-        <v>0.0208735215862714</v>
+        <v>0.06238813738186891</v>
       </c>
       <c r="T20">
-        <v>0.0208735215862714</v>
+        <v>0.06238813738186891</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.4689626666666666</v>
+        <v>0.746305</v>
       </c>
       <c r="H21">
-        <v>1.406888</v>
+        <v>2.238915</v>
       </c>
       <c r="I21">
-        <v>0.353634277354796</v>
+        <v>0.5246062316401351</v>
       </c>
       <c r="J21">
-        <v>0.353634277354796</v>
+        <v>0.524606231640135</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>85.10236499999999</v>
       </c>
       <c r="O21">
-        <v>0.1026647715316729</v>
+        <v>0.1062760886263749</v>
       </c>
       <c r="P21">
-        <v>0.1026647715316729</v>
+        <v>0.106276088626375</v>
       </c>
       <c r="Q21">
-        <v>13.30327734334666</v>
+        <v>21.170773503775</v>
       </c>
       <c r="R21">
-        <v>119.72949609012</v>
+        <v>190.536961533975</v>
       </c>
       <c r="S21">
-        <v>0.03630578229039837</v>
+        <v>0.05575309836773557</v>
       </c>
       <c r="T21">
-        <v>0.03630578229039838</v>
+        <v>0.05575309836773557</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.4689626666666666</v>
+        <v>0.746305</v>
       </c>
       <c r="H22">
-        <v>1.406888</v>
+        <v>2.238915</v>
       </c>
       <c r="I22">
-        <v>0.353634277354796</v>
+        <v>0.5246062316401351</v>
       </c>
       <c r="J22">
-        <v>0.353634277354796</v>
+        <v>0.524606231640135</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>70.295663</v>
+        <v>70.51016133333333</v>
       </c>
       <c r="N22">
-        <v>210.886989</v>
+        <v>211.530484</v>
       </c>
       <c r="O22">
-        <v>0.2544073192876299</v>
+        <v>0.264159902780187</v>
       </c>
       <c r="P22">
-        <v>0.2544073192876299</v>
+        <v>0.264159902780187</v>
       </c>
       <c r="Q22">
-        <v>32.96604157558134</v>
+        <v>52.62208595387333</v>
       </c>
       <c r="R22">
-        <v>296.694374180232</v>
+        <v>473.59877358486</v>
       </c>
       <c r="S22">
-        <v>0.08996714851005186</v>
+        <v>0.1385799311479383</v>
       </c>
       <c r="T22">
-        <v>0.08996714851005186</v>
+        <v>0.1385799311479383</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.4689626666666666</v>
+        <v>0.746305</v>
       </c>
       <c r="H23">
-        <v>1.406888</v>
+        <v>2.238915</v>
       </c>
       <c r="I23">
-        <v>0.353634277354796</v>
+        <v>0.5246062316401351</v>
       </c>
       <c r="J23">
-        <v>0.353634277354796</v>
+        <v>0.524606231640135</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.105304</v>
+        <v>6.595865666666666</v>
       </c>
       <c r="N23">
-        <v>33.315912</v>
+        <v>19.787597</v>
       </c>
       <c r="O23">
-        <v>0.04019125078191798</v>
+        <v>0.02471081047483217</v>
       </c>
       <c r="P23">
-        <v>0.04019125078191799</v>
+        <v>0.02471081047483218</v>
       </c>
       <c r="Q23">
-        <v>5.207972977983999</v>
+        <v>4.922527526361666</v>
       </c>
       <c r="R23">
-        <v>46.87175680185599</v>
+        <v>44.302747737255</v>
       </c>
       <c r="S23">
-        <v>0.01421300392624895</v>
+        <v>0.01296344516397528</v>
       </c>
       <c r="T23">
-        <v>0.01421300392624895</v>
+        <v>0.01296344516397528</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.4689626666666666</v>
+        <v>0.746305</v>
       </c>
       <c r="H24">
-        <v>1.406888</v>
+        <v>2.238915</v>
       </c>
       <c r="I24">
-        <v>0.353634277354796</v>
+        <v>0.5246062316401351</v>
       </c>
       <c r="J24">
-        <v>0.353634277354796</v>
+        <v>0.524606231640135</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>54.16787466666667</v>
+        <v>64.15060166666667</v>
       </c>
       <c r="N24">
-        <v>162.503624</v>
+        <v>192.451805</v>
       </c>
       <c r="O24">
-        <v>0.1960391750690933</v>
+        <v>0.2403343912297365</v>
       </c>
       <c r="P24">
-        <v>0.1960391750690933</v>
+        <v>0.2403343912297365</v>
       </c>
       <c r="Q24">
-        <v>25.40271095134578</v>
+        <v>47.87591477684168</v>
       </c>
       <c r="R24">
-        <v>228.624398562112</v>
+        <v>430.883232991575</v>
       </c>
       <c r="S24">
-        <v>0.06932617200878916</v>
+        <v>0.126080919316558</v>
       </c>
       <c r="T24">
-        <v>0.06932617200878917</v>
+        <v>0.126080919316558</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.4689626666666666</v>
+        <v>0.746305</v>
       </c>
       <c r="H25">
-        <v>1.406888</v>
+        <v>2.238915</v>
       </c>
       <c r="I25">
-        <v>0.353634277354796</v>
+        <v>0.5246062316401351</v>
       </c>
       <c r="J25">
-        <v>0.353634277354796</v>
+        <v>0.524606231640135</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>96.06569666666667</v>
+        <v>65.55479199999999</v>
       </c>
       <c r="N25">
-        <v>288.19709</v>
+        <v>196.664376</v>
       </c>
       <c r="O25">
-        <v>0.347671752729116</v>
+        <v>0.2455950625276598</v>
       </c>
       <c r="P25">
-        <v>0.347671752729116</v>
+        <v>0.2455950625276598</v>
       </c>
       <c r="Q25">
-        <v>45.05122528399111</v>
+        <v>48.92386904356</v>
       </c>
       <c r="R25">
-        <v>405.46102755592</v>
+        <v>440.31482139204</v>
       </c>
       <c r="S25">
-        <v>0.1229486490330363</v>
+        <v>0.1288407002620589</v>
       </c>
       <c r="T25">
-        <v>0.1229486490330363</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.3371506666666667</v>
-      </c>
-      <c r="H26">
-        <v>1.011452</v>
-      </c>
-      <c r="I26">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="J26">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>16.309487</v>
-      </c>
-      <c r="N26">
-        <v>48.928461</v>
-      </c>
-      <c r="O26">
-        <v>0.05902573060056989</v>
-      </c>
-      <c r="P26">
-        <v>0.05902573060056989</v>
-      </c>
-      <c r="Q26">
-        <v>5.498754415041334</v>
-      </c>
-      <c r="R26">
-        <v>49.488789735372</v>
-      </c>
-      <c r="S26">
-        <v>0.01500657135143479</v>
-      </c>
-      <c r="T26">
-        <v>0.01500657135143479</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.3371506666666667</v>
-      </c>
-      <c r="H27">
-        <v>1.011452</v>
-      </c>
-      <c r="I27">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="J27">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>28.367455</v>
-      </c>
-      <c r="N27">
-        <v>85.10236499999999</v>
-      </c>
-      <c r="O27">
-        <v>0.1026647715316729</v>
-      </c>
-      <c r="P27">
-        <v>0.1026647715316729</v>
-      </c>
-      <c r="Q27">
-        <v>9.564106364886666</v>
-      </c>
-      <c r="R27">
-        <v>86.07695728397999</v>
-      </c>
-      <c r="S27">
-        <v>0.02610126471274759</v>
-      </c>
-      <c r="T27">
-        <v>0.02610126471274759</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.3371506666666667</v>
-      </c>
-      <c r="H28">
-        <v>1.011452</v>
-      </c>
-      <c r="I28">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="J28">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>70.295663</v>
-      </c>
-      <c r="N28">
-        <v>210.886989</v>
-      </c>
-      <c r="O28">
-        <v>0.2544073192876299</v>
-      </c>
-      <c r="P28">
-        <v>0.2544073192876299</v>
-      </c>
-      <c r="Q28">
-        <v>23.70022964422533</v>
-      </c>
-      <c r="R28">
-        <v>213.302066798028</v>
-      </c>
-      <c r="S28">
-        <v>0.06467995483278625</v>
-      </c>
-      <c r="T28">
-        <v>0.06467995483278625</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.3371506666666667</v>
-      </c>
-      <c r="H29">
-        <v>1.011452</v>
-      </c>
-      <c r="I29">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="J29">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>11.105304</v>
-      </c>
-      <c r="N29">
-        <v>33.315912</v>
-      </c>
-      <c r="O29">
-        <v>0.04019125078191798</v>
-      </c>
-      <c r="P29">
-        <v>0.04019125078191799</v>
-      </c>
-      <c r="Q29">
-        <v>3.744160647135999</v>
-      </c>
-      <c r="R29">
-        <v>33.697445824224</v>
-      </c>
-      <c r="S29">
-        <v>0.01021813481045566</v>
-      </c>
-      <c r="T29">
-        <v>0.01021813481045567</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.3371506666666667</v>
-      </c>
-      <c r="H30">
-        <v>1.011452</v>
-      </c>
-      <c r="I30">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="J30">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>54.16787466666667</v>
-      </c>
-      <c r="N30">
-        <v>162.503624</v>
-      </c>
-      <c r="O30">
-        <v>0.1960391750690933</v>
-      </c>
-      <c r="P30">
-        <v>0.1960391750690933</v>
-      </c>
-      <c r="Q30">
-        <v>18.26273505578311</v>
-      </c>
-      <c r="R30">
-        <v>164.364615502048</v>
-      </c>
-      <c r="S30">
-        <v>0.04984056679041531</v>
-      </c>
-      <c r="T30">
-        <v>0.04984056679041532</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.3371506666666667</v>
-      </c>
-      <c r="H31">
-        <v>1.011452</v>
-      </c>
-      <c r="I31">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="J31">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>96.06569666666667</v>
-      </c>
-      <c r="N31">
-        <v>288.19709</v>
-      </c>
-      <c r="O31">
-        <v>0.347671752729116</v>
-      </c>
-      <c r="P31">
-        <v>0.347671752729116</v>
-      </c>
-      <c r="Q31">
-        <v>32.38861367496445</v>
-      </c>
-      <c r="R31">
-        <v>291.49752307468</v>
-      </c>
-      <c r="S31">
-        <v>0.08839129835620363</v>
-      </c>
-      <c r="T31">
-        <v>0.08839129835620363</v>
+        <v>0.1288407002620589</v>
       </c>
     </row>
   </sheetData>
